--- a/cbrunner/Parameters/Table_NutrientApp_ExperimentalResponseFoliage.xlsx
+++ b/cbrunner/Parameters/Table_NutrientApp_ExperimentalResponseFoliage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1038FB5-E4D2-4722-9068-E6F66FE00A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE6A02-E5DC-4321-BA46-34E6C281EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{184D4A5F-4300-4896-BF9A-A614FA83255A}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{184D4A5F-4300-4896-BF9A-A614FA83255A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -258,12 +258,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -281,6 +275,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,53 +608,53 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>136</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>146</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0.9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1"/>
@@ -654,20 +663,20 @@
       <c r="I2" s="1"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>61</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>67</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1"/>
@@ -676,20 +685,20 @@
       <c r="I3" s="1"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>174</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>65</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>2.7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -698,20 +707,20 @@
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>15400</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>87</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>2217</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3"/>
@@ -720,20 +729,20 @@
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>16</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>70</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>0.2</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3"/>
@@ -742,122 +751,122 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>13</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>72</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0.2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>-4</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>56</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>-0.1</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>0.2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>6</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0.6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>75</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>87</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0.9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>1418</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>1398</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>0.9</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
